--- a/1. Accesos Email's Web's.xlsx
+++ b/1. Accesos Email's Web's.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SEO\caro dge\archivos compartidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885" firstSheet="4" activeTab="4"/>
   </bookViews>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="344">
   <si>
     <t>Correos www.its-peru.com</t>
   </si>
@@ -1012,7 +1017,58 @@
     <t>facturas%jaya%</t>
   </si>
   <si>
-    <t>asdsdsad</t>
+    <t>controlycalidad@jayamachupicchu.com</t>
+  </si>
+  <si>
+    <t>5hDG]mDtiI,m</t>
+  </si>
+  <si>
+    <t>movilidad@cuscoperu.com</t>
+  </si>
+  <si>
+    <t>Iwri3@?zVD#8</t>
+  </si>
+  <si>
+    <t>contabilidad@cuscoperu.com</t>
+  </si>
+  <si>
+    <t>,hV{9fO+DWS*</t>
+  </si>
+  <si>
+    <t>pass:</t>
+  </si>
+  <si>
+    <t>Docedoce12</t>
+  </si>
+  <si>
+    <t>Usar correo en jivochat cuscoperu</t>
+  </si>
+  <si>
+    <t>nueva</t>
+  </si>
+  <si>
+    <t>3}9MI?8Q}_I%</t>
+  </si>
+  <si>
+    <t>contabilidad1@cuscoperu.com</t>
+  </si>
+  <si>
+    <t>K.bO1PEZ,y#4</t>
+  </si>
+  <si>
+    <t>%4R~&amp;C_j,(@0</t>
+  </si>
+  <si>
+    <t>[AS#*PP6a}Ru</t>
+  </si>
+  <si>
+    <t>mkt@grupogastronomico.pe</t>
+  </si>
+  <si>
+    <t>gerencia@jayamachupicchu.com</t>
+  </si>
+  <si>
+    <t>CQp?k]zmfsHD</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1406,6 +1462,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1629,6 +1687,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1904,7 +1968,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1924,365 +1988,365 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="46" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="63" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="62" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="49" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="46" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="49" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="46" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="49" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="46" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
       <c r="H12" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="49" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="46" t="s">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="49" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="54" t="s">
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="49" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="46" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="49" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="46" t="s">
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="53" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="35" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="35" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="35" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="35" t="s">
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="35" t="s">
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="32" t="s">
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="32" t="s">
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
@@ -2408,170 +2472,170 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="66" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="66" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="74" t="s">
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="75"/>
-      <c r="G14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="66" t="s">
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2622,86 +2686,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78" t="s">
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82" t="s">
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="86"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="85" t="s">
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="86" t="s">
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="83"/>
-      <c r="G8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2725,10 +2789,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N50"/>
+  <dimension ref="B2:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,382 +2803,382 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71"/>
-      <c r="I2" s="58" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="I2" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="97" t="s">
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="99"/>
-      <c r="I3" s="100" t="s">
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
+      <c r="I3" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100" t="s">
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="78" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="I6" s="88" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="I6" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88" t="s">
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100" t="s">
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="I9" s="100" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="I9" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100" t="s">
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="78" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I13" s="88" t="s">
+      <c r="I13" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88" t="s">
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="I14" s="103" t="s">
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
+      <c r="I14" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92" t="s">
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="97" t="s">
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="99"/>
-      <c r="I15" s="58" t="s">
+      <c r="F15" s="100"/>
+      <c r="G15" s="101"/>
+      <c r="I15" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="78" t="s">
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
-      <c r="I16" s="88" t="s">
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
+      <c r="I16" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88" t="s">
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="97" t="s">
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="99"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="101"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I18" s="58" t="s">
+      <c r="I18" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="I19" s="88" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="I19" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88" t="s">
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100" t="s">
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="I22" s="58" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="I22" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="88" t="s">
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="I23" s="88" t="s">
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="I23" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88" t="s">
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="91" t="s">
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="I26" s="58" t="s">
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="I26" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="91" t="s">
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="I27" s="88" t="s">
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="I27" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="91" t="s">
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
@@ -3122,11 +3186,11 @@
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="104" t="s">
+      <c r="E28" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="F28" s="92"/>
-      <c r="G28" s="93"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="95"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -3140,11 +3204,11 @@
         <v>172</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="92" t="s">
+      <c r="E29" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="92"/>
-      <c r="G29" s="93"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="95"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -3153,16 +3217,16 @@
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89" t="s">
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -3173,160 +3237,185 @@
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="87" t="s">
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="91" t="s">
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="93" t="s">
         <v>164</v>
       </c>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="87"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="87"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="58" t="s">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I36" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="J36" s="33"/>
+      <c r="L36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="87" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="89" t="s">
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="87" t="s">
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="89" t="s">
         <v>177</v>
       </c>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="91" t="s">
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="87" t="s">
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="89" t="s">
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="87" t="s">
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="89" t="s">
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="58" t="s">
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="87" t="s">
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="89" t="s">
+      <c r="C47" s="90"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="87" t="s">
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="89" t="s">
         <v>242</v>
       </c>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="91" t="s">
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="93" t="s">
         <v>243</v>
       </c>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="87" t="s">
+      <c r="B49" s="89" t="s">
         <v>324</v>
       </c>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="89" t="s">
+      <c r="C49" s="90"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="91" t="s">
         <v>325</v>
       </c>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="87" t="s">
+      <c r="B50" s="89" t="s">
         <v>326</v>
       </c>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="91" t="s">
+        <v>327</v>
+      </c>
+      <c r="F50" s="92"/>
+      <c r="G50" s="92"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="110" t="s">
+        <v>342</v>
+      </c>
+      <c r="C51" s="109"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109" t="s">
+        <v>343</v>
+      </c>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
+  <mergeCells count="88">
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="B42:D42"/>
@@ -3434,9 +3523,12 @@
     <hyperlink ref="B3" r:id="rId17"/>
     <hyperlink ref="I14" r:id="rId18"/>
     <hyperlink ref="B49" r:id="rId19"/>
+    <hyperlink ref="B50" r:id="rId20"/>
+    <hyperlink ref="I36" r:id="rId21"/>
+    <hyperlink ref="B51" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="360" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="360" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -3481,10 +3573,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:C16"/>
+  <dimension ref="B6:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3492,22 +3584,26 @@
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>143</v>
       </c>
@@ -3515,23 +3611,29 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
@@ -3539,23 +3641,32 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>236</v>
       </c>
@@ -3563,12 +3674,36 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
         <v>238</v>
       </c>
       <c r="C16" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3576,9 +3711,10 @@
     <hyperlink ref="B14" r:id="rId1"/>
     <hyperlink ref="B15" r:id="rId2"/>
     <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="B17" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3586,8 +3722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3597,10 +3733,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="107" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="106"/>
+      <c r="D2" s="108"/>
     </row>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="14" t="s">
@@ -3869,7 +4005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
